--- a/SPP3-dynamic-large.xlsx
+++ b/SPP3-dynamic-large.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PDR-large" sheetId="1" r:id="rId1"/>
     <sheet name="trained-large" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>instances</t>
   </si>
@@ -139,6 +140,114 @@
   </si>
   <si>
     <t>min-trained</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>reused_policy*</t>
+  </si>
+  <si>
+    <t>new_policy</t>
+  </si>
+  <si>
+    <t>trained</t>
+  </si>
+  <si>
+    <t>ft06_new_25%
+(10x6)</t>
+  </si>
+  <si>
+    <t>ft06_new_50%
+(10x6)</t>
+  </si>
+  <si>
+    <t>ft06_new_75%
+(10x6)</t>
+  </si>
+  <si>
+    <t>orb01_new_25%
+(16x10)</t>
+  </si>
+  <si>
+    <t>orb01_new_50%
+(16x10)</t>
+  </si>
+  <si>
+    <t>orb01_new_75%
+(16x10)</t>
+  </si>
+  <si>
+    <t>la21_new_25%
+(20x10)</t>
+  </si>
+  <si>
+    <t>la21_new_50%
+(20x10)</t>
+  </si>
+  <si>
+    <t>la21_new_75%
+(20x10)</t>
+  </si>
+  <si>
+    <t>la26_new_25%
+(26x10)</t>
+  </si>
+  <si>
+    <t>la26_new_50%
+(26x10)</t>
+  </si>
+  <si>
+    <t>la26_new_75%
+(26x10)</t>
+  </si>
+  <si>
+    <t>abz7_new_25%
+(26x15)</t>
+  </si>
+  <si>
+    <t>abz7_new_50%
+(26x15)</t>
+  </si>
+  <si>
+    <t>abz7_new_75%
+(26x15)</t>
+  </si>
+  <si>
+    <t>ta21_new_25%
+(26x20)</t>
+  </si>
+  <si>
+    <t>ta21_new_50%
+(26x20)</t>
+  </si>
+  <si>
+    <t>ta21_new_75%
+(26x20)</t>
+  </si>
+  <si>
+    <t>dmu16_new_25%
+(40x20)</t>
+  </si>
+  <si>
+    <t>dmu16_new_50%
+(40x20)</t>
+  </si>
+  <si>
+    <t>dmu16_new_75%
+(40x20)</t>
+  </si>
+  <si>
+    <t>ta61_new_25%
+(60x20)</t>
+  </si>
+  <si>
+    <t>ta61_new_50%
+(60x20)</t>
+  </si>
+  <si>
+    <t>ta61_new_75%
+(60x20)</t>
   </si>
 </sst>
 </file>
@@ -767,13 +876,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1498,7 +1607,937 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reused_policy*</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>ft06_new_25%
+(10x6)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ft06_new_50%
+(10x6)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ft06_new_75%
+(10x6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>orb01_new_25%
+(16x10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>orb01_new_50%
+(16x10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>orb01_new_75%
+(16x10)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>la21_new_25%
+(20x10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>la21_new_50%
+(20x10)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>la21_new_75%
+(20x10)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>la26_new_25%
+(26x10)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>la26_new_50%
+(26x10)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>la26_new_75%
+(26x10)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>abz7_new_25%
+(26x15)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>abz7_new_50%
+(26x15)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>abz7_new_75%
+(26x15)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ta21_new_25%
+(26x20)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ta21_new_50%
+(26x20)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ta21_new_75%
+(26x20)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dmu16_new_25%
+(40x20)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dmu16_new_50%
+(40x20)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dmu16_new_75%
+(40x20)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ta61_new_25%
+(60x20)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ta61_new_50%
+(60x20)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>ta61_new_75%
+(60x20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>685</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3548</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2974</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2224</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>new_policy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>ft06_new_25%
+(10x6)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ft06_new_50%
+(10x6)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ft06_new_75%
+(10x6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>orb01_new_25%
+(16x10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>orb01_new_50%
+(16x10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>orb01_new_75%
+(16x10)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>la21_new_25%
+(20x10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>la21_new_50%
+(20x10)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>la21_new_75%
+(20x10)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>la26_new_25%
+(26x10)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>la26_new_50%
+(26x10)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>la26_new_75%
+(26x10)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>abz7_new_25%
+(26x15)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>abz7_new_50%
+(26x15)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>abz7_new_75%
+(26x15)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ta21_new_25%
+(26x20)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ta21_new_50%
+(26x20)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ta21_new_75%
+(26x20)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dmu16_new_25%
+(40x20)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dmu16_new_50%
+(40x20)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dmu16_new_75%
+(40x20)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ta61_new_25%
+(60x20)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ta61_new_50%
+(60x20)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>ta61_new_75%
+(60x20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1090</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>693</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1263</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1656</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4319</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3479</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3151</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2916</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2224</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trained</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>ft06_new_25%
+(10x6)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ft06_new_50%
+(10x6)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ft06_new_75%
+(10x6)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>orb01_new_25%
+(16x10)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>orb01_new_50%
+(16x10)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>orb01_new_75%
+(16x10)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>la21_new_25%
+(20x10)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>la21_new_50%
+(20x10)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>la21_new_75%
+(20x10)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>la26_new_25%
+(26x10)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>la26_new_50%
+(26x10)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>la26_new_75%
+(26x10)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>abz7_new_25%
+(26x15)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>abz7_new_50%
+(26x15)</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>abz7_new_75%
+(26x15)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>ta21_new_25%
+(26x20)</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>ta21_new_50%
+(26x20)</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>ta21_new_75%
+(26x20)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>dmu16_new_25%
+(40x20)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>dmu16_new_50%
+(40x20)</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>dmu16_new_75%
+(40x20)</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>ta61_new_25%
+(60x20)</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>ta61_new_50%
+(60x20)</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>ta61_new_75%
+(60x20)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1691</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1408</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4270</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3513</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3077</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2224</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="653983940"/>
+        <c:axId val="762874085"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="653983940"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762874085"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="762874085"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653983940"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2054,6 +3093,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2077,6 +3632,41 @@
       <xdr:xfrm>
         <a:off x="2886075" y="284480"/>
         <a:ext cx="7573645" cy="4777105"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485140</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>299720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3327400" y="368300"/>
+        <a:ext cx="7673340" cy="3771900"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2378,7 +3968,7 @@
   <sheetPr/>
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N1" sqref="N$1:N$1048576"/>
     </sheetView>
   </sheetViews>
@@ -3524,7 +5114,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H25"/>
+      <selection activeCell="H23" sqref="H23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3582,8 +5172,8 @@
       <c r="G2" s="3">
         <v>661</v>
       </c>
-      <c r="H2" s="4">
-        <f>MIN(B2:G2)</f>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:H25" si="0">MIN(B2:G2)</f>
         <v>656</v>
       </c>
     </row>
@@ -3609,8 +5199,8 @@
       <c r="G3" s="3">
         <v>486</v>
       </c>
-      <c r="H3" s="4">
-        <f>MIN(B3:G3)</f>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
         <v>482</v>
       </c>
     </row>
@@ -3636,8 +5226,8 @@
       <c r="G4" s="3">
         <v>442</v>
       </c>
-      <c r="H4" s="4">
-        <f>MIN(B4:G4)</f>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
         <v>420</v>
       </c>
     </row>
@@ -3664,7 +5254,7 @@
         <v>4331</v>
       </c>
       <c r="H5" s="5">
-        <f>MIN(B5:G5)</f>
+        <f t="shared" si="0"/>
         <v>4270</v>
       </c>
     </row>
@@ -3691,7 +5281,7 @@
         <v>3550</v>
       </c>
       <c r="H6" s="5">
-        <f>MIN(B6:G6)</f>
+        <f t="shared" si="0"/>
         <v>3513</v>
       </c>
     </row>
@@ -3718,7 +5308,7 @@
         <v>3087</v>
       </c>
       <c r="H7" s="5">
-        <f>MIN(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>3077</v>
       </c>
     </row>
@@ -3744,8 +5334,8 @@
       <c r="G8" s="3">
         <v>68</v>
       </c>
-      <c r="H8" s="4">
-        <f>MIN(B8:G8)</f>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
@@ -3771,8 +5361,8 @@
       <c r="G9" s="3">
         <v>58</v>
       </c>
-      <c r="H9" s="4">
-        <f>MIN(B9:G9)</f>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
@@ -3798,8 +5388,8 @@
       <c r="G10" s="3">
         <v>45</v>
       </c>
-      <c r="H10" s="4">
-        <f>MIN(B10:G10)</f>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -3825,8 +5415,8 @@
       <c r="G11" s="3">
         <v>1108</v>
       </c>
-      <c r="H11" s="4">
-        <f>MIN(B11:G11)</f>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
         <v>1108</v>
       </c>
     </row>
@@ -3852,8 +5442,8 @@
       <c r="G12" s="3">
         <v>897</v>
       </c>
-      <c r="H12" s="4">
-        <f>MIN(B12:G12)</f>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
         <v>886</v>
       </c>
     </row>
@@ -3879,8 +5469,8 @@
       <c r="G13" s="3">
         <v>685</v>
       </c>
-      <c r="H13" s="4">
-        <f>MIN(B13:G13)</f>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
         <v>680</v>
       </c>
     </row>
@@ -3907,7 +5497,7 @@
         <v>1474</v>
       </c>
       <c r="H14" s="5">
-        <f>MIN(B14:G14)</f>
+        <f t="shared" si="0"/>
         <v>1362</v>
       </c>
     </row>
@@ -3934,7 +5524,7 @@
         <v>1202</v>
       </c>
       <c r="H15" s="5">
-        <f>MIN(B15:G15)</f>
+        <f t="shared" si="0"/>
         <v>1057</v>
       </c>
     </row>
@@ -3960,8 +5550,8 @@
       <c r="G16" s="3">
         <v>857</v>
       </c>
-      <c r="H16" s="4">
-        <f>MIN(B16:G16)</f>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
         <v>857</v>
       </c>
     </row>
@@ -3987,8 +5577,8 @@
       <c r="G17" s="3">
         <v>1056</v>
       </c>
-      <c r="H17" s="4">
-        <f>MIN(B17:G17)</f>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
         <v>1056</v>
       </c>
     </row>
@@ -4014,8 +5604,8 @@
       <c r="G18" s="3">
         <v>867</v>
       </c>
-      <c r="H18" s="4">
-        <f>MIN(B18:G18)</f>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
         <v>850</v>
       </c>
     </row>
@@ -4041,8 +5631,8 @@
       <c r="G19" s="3">
         <v>763</v>
       </c>
-      <c r="H19" s="4">
-        <f>MIN(B19:G19)</f>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
         <v>717</v>
       </c>
     </row>
@@ -4068,8 +5658,8 @@
       <c r="G20" s="3">
         <v>1790</v>
       </c>
-      <c r="H20" s="4">
-        <f>MIN(B20:G20)</f>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
         <v>1691</v>
       </c>
     </row>
@@ -4095,8 +5685,8 @@
       <c r="G21" s="3">
         <v>1522</v>
       </c>
-      <c r="H21" s="4">
-        <f>MIN(B21:G21)</f>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
         <v>1408</v>
       </c>
     </row>
@@ -4122,8 +5712,8 @@
       <c r="G22" s="3">
         <v>1393</v>
       </c>
-      <c r="H22" s="4">
-        <f>MIN(B22:G22)</f>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
         <v>1361</v>
       </c>
     </row>
@@ -4149,8 +5739,8 @@
       <c r="G23" s="3">
         <v>2934</v>
       </c>
-      <c r="H23" s="4">
-        <f>MIN(B23:G23)</f>
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
         <v>2899</v>
       </c>
     </row>
@@ -4177,7 +5767,7 @@
         <v>2224</v>
       </c>
       <c r="H24" s="5">
-        <f>MIN(B24:G24)</f>
+        <f t="shared" si="0"/>
         <v>2224</v>
       </c>
     </row>
@@ -4204,7 +5794,7 @@
         <v>1709</v>
       </c>
       <c r="H25" s="5">
-        <f>MIN(B25:G25)</f>
+        <f t="shared" si="0"/>
         <v>1709</v>
       </c>
     </row>
@@ -4280,7 +5870,7 @@
       <c r="B5">
         <v>4167</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>4270</v>
       </c>
     </row>
@@ -4291,7 +5881,7 @@
       <c r="B6">
         <v>3496</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>3513</v>
       </c>
     </row>
@@ -4302,7 +5892,7 @@
       <c r="B7">
         <v>3002</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3077</v>
       </c>
     </row>
@@ -4379,7 +5969,7 @@
       <c r="B14">
         <v>1327</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>1362</v>
       </c>
     </row>
@@ -4390,7 +5980,7 @@
       <c r="B15">
         <v>1023</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>1057</v>
       </c>
     </row>
@@ -4500,7 +6090,7 @@
       <c r="B25">
         <v>1640</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>1709</v>
       </c>
     </row>
@@ -4510,4 +6100,376 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:D$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
+    <col min="2" max="3" width="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" ht="28.8" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="3">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1066</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1055</v>
+      </c>
+      <c r="D5">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3">
+        <v>850</v>
+      </c>
+      <c r="C6" s="3">
+        <v>850</v>
+      </c>
+      <c r="D6">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>751</v>
+      </c>
+      <c r="C7" s="3">
+        <v>700</v>
+      </c>
+      <c r="D7">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1096</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1090</v>
+      </c>
+      <c r="D8">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3">
+        <v>834</v>
+      </c>
+      <c r="C9" s="3">
+        <v>857</v>
+      </c>
+      <c r="D9">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3">
+        <v>685</v>
+      </c>
+      <c r="C10" s="3">
+        <v>693</v>
+      </c>
+      <c r="D10">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1276</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1263</v>
+      </c>
+      <c r="D11">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="3">
+        <v>995</v>
+      </c>
+      <c r="C12" s="3">
+        <v>986</v>
+      </c>
+      <c r="D12">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3">
+        <v>816</v>
+      </c>
+      <c r="C13" s="3">
+        <v>816</v>
+      </c>
+      <c r="D13">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3">
+        <v>661</v>
+      </c>
+      <c r="C14" s="3">
+        <v>640</v>
+      </c>
+      <c r="D14">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3">
+        <v>471</v>
+      </c>
+      <c r="C15" s="3">
+        <v>476</v>
+      </c>
+      <c r="D15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3">
+        <v>387</v>
+      </c>
+      <c r="C16" s="3">
+        <v>389</v>
+      </c>
+      <c r="D16">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1696</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1656</v>
+      </c>
+      <c r="D17">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1357</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1380</v>
+      </c>
+      <c r="D18">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1331</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1383</v>
+      </c>
+      <c r="D19">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4203</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4319</v>
+      </c>
+      <c r="D20">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3548</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3479</v>
+      </c>
+      <c r="D21">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3039</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3151</v>
+      </c>
+      <c r="D22">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2974</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2916</v>
+      </c>
+      <c r="D23">
+        <v>2899</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2224</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2224</v>
+      </c>
+      <c r="D24">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="25" ht="28.8" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1640</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1640</v>
+      </c>
+      <c r="D25">
+        <v>1709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SPP3-dynamic-large.xlsx
+++ b/SPP3-dynamic-large.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PDR" sheetId="1" r:id="rId1"/>
@@ -940,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,16 +959,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10322,16 +10316,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>305435</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>267335</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:rowOff>78740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -10339,7 +10333,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="792480" y="422910"/>
+        <a:off x="3802380" y="430530"/>
         <a:ext cx="10828655" cy="5317490"/>
       </xdr:xfrm>
       <a:graphic>
@@ -12005,7 +11999,7 @@
         <v>68</v>
       </c>
       <c r="H2" s="3">
-        <f>AVERAGE(C2:G2)</f>
+        <f t="shared" ref="H2:H25" si="0">AVERAGE(C2:G2)</f>
         <v>68</v>
       </c>
       <c r="I2">
@@ -12035,7 +12029,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="3">
-        <f>AVERAGE(C3:G3)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="I3">
@@ -12065,7 +12059,7 @@
         <v>45</v>
       </c>
       <c r="H4" s="3">
-        <f>AVERAGE(C4:G4)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="I4">
@@ -12095,7 +12089,7 @@
         <v>1056</v>
       </c>
       <c r="H5" s="3">
-        <f>AVERAGE(C5:G5)</f>
+        <f t="shared" si="0"/>
         <v>1090.8</v>
       </c>
       <c r="I5">
@@ -12125,7 +12119,7 @@
         <v>854</v>
       </c>
       <c r="H6" s="3">
-        <f>AVERAGE(C6:G6)</f>
+        <f t="shared" si="0"/>
         <v>850.8</v>
       </c>
       <c r="I6">
@@ -12139,7 +12133,7 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>717</v>
       </c>
       <c r="D7" s="5">
@@ -12154,8 +12148,8 @@
       <c r="G7" s="5">
         <v>733</v>
       </c>
-      <c r="H7" s="8">
-        <f>AVERAGE(C7:G7)</f>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
         <v>723.2</v>
       </c>
       <c r="I7">
@@ -12178,14 +12172,14 @@
       <c r="E8" s="5">
         <v>1114</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>1109</v>
       </c>
       <c r="G8" s="5">
         <v>1108</v>
       </c>
       <c r="H8" s="3">
-        <f>AVERAGE(C8:G8)</f>
+        <f t="shared" si="0"/>
         <v>1121.4</v>
       </c>
       <c r="I8">
@@ -12215,7 +12209,7 @@
         <v>897</v>
       </c>
       <c r="H9" s="3">
-        <f>AVERAGE(C9:G9)</f>
+        <f t="shared" si="0"/>
         <v>893.2</v>
       </c>
       <c r="I9">
@@ -12232,10 +12226,10 @@
       <c r="C10" s="1">
         <v>680</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>663</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>663</v>
       </c>
       <c r="F10" s="5">
@@ -12245,7 +12239,7 @@
         <v>685</v>
       </c>
       <c r="H10" s="3">
-        <f>AVERAGE(C10:G10)</f>
+        <f t="shared" si="0"/>
         <v>675.2</v>
       </c>
       <c r="I10">
@@ -12274,8 +12268,8 @@
       <c r="G11" s="5">
         <v>1386</v>
       </c>
-      <c r="H11" s="9">
-        <f>AVERAGE(C11:G11)</f>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
         <v>1384</v>
       </c>
       <c r="I11">
@@ -12304,8 +12298,8 @@
       <c r="G12" s="5">
         <v>1092</v>
       </c>
-      <c r="H12" s="9">
-        <f>AVERAGE(C12:G12)</f>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
         <v>1082.4</v>
       </c>
       <c r="I12">
@@ -12335,7 +12329,7 @@
         <v>857</v>
       </c>
       <c r="H13" s="3">
-        <f>AVERAGE(C13:G13)</f>
+        <f t="shared" si="0"/>
         <v>870</v>
       </c>
       <c r="I13">
@@ -12365,7 +12359,7 @@
         <v>661</v>
       </c>
       <c r="H14" s="3">
-        <f>AVERAGE(C14:G14)</f>
+        <f t="shared" si="0"/>
         <v>663.4</v>
       </c>
       <c r="I14">
@@ -12395,7 +12389,7 @@
         <v>486</v>
       </c>
       <c r="H15" s="3">
-        <f>AVERAGE(C15:G15)</f>
+        <f t="shared" si="0"/>
         <v>483.6</v>
       </c>
       <c r="I15">
@@ -12425,7 +12419,7 @@
         <v>416</v>
       </c>
       <c r="H16" s="3">
-        <f>AVERAGE(C16:G16)</f>
+        <f t="shared" si="0"/>
         <v>429</v>
       </c>
       <c r="I16">
@@ -12454,8 +12448,8 @@
       <c r="G17" s="5">
         <v>1718</v>
       </c>
-      <c r="H17" s="9">
-        <f>AVERAGE(C17:G17)</f>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
         <v>1718.2</v>
       </c>
       <c r="I17">
@@ -12485,7 +12479,7 @@
         <v>1410</v>
       </c>
       <c r="H18" s="3">
-        <f>AVERAGE(C18:G18)</f>
+        <f t="shared" si="0"/>
         <v>1419.6</v>
       </c>
       <c r="I18">
@@ -12515,7 +12509,7 @@
         <v>1385</v>
       </c>
       <c r="H19" s="3">
-        <f>AVERAGE(C19:G19)</f>
+        <f t="shared" si="0"/>
         <v>1356</v>
       </c>
       <c r="I19">
@@ -12529,23 +12523,23 @@
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>4217</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>4244</v>
       </c>
       <c r="E20" s="5">
         <v>4251</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>4240</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>4192</v>
       </c>
-      <c r="H20" s="9">
-        <f>AVERAGE(C20:G20)</f>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
         <v>4228.8</v>
       </c>
       <c r="I20">
@@ -12571,11 +12565,11 @@
       <c r="F21" s="5">
         <v>3513</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>3522</v>
       </c>
-      <c r="H21" s="9">
-        <f>AVERAGE(C21:G21)</f>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
         <v>3511</v>
       </c>
       <c r="I21">
@@ -12589,23 +12583,23 @@
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>3069</v>
       </c>
       <c r="D22" s="5">
         <v>3077</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>3025</v>
       </c>
       <c r="F22" s="5">
         <v>3036</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>3042</v>
       </c>
-      <c r="H22" s="9">
-        <f>AVERAGE(C22:G22)</f>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
         <v>3049.8</v>
       </c>
       <c r="I22">
@@ -12635,7 +12629,7 @@
         <v>2897</v>
       </c>
       <c r="H23" s="3">
-        <f>AVERAGE(C23:G23)</f>
+        <f t="shared" si="0"/>
         <v>2912.2</v>
       </c>
       <c r="I23">
@@ -12665,7 +12659,7 @@
         <v>2224</v>
       </c>
       <c r="H24" s="3">
-        <f>AVERAGE(C24:G24)</f>
+        <f t="shared" si="0"/>
         <v>2224</v>
       </c>
       <c r="I24">
@@ -12685,17 +12679,17 @@
       <c r="D25" s="5">
         <v>1647</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>1643</v>
       </c>
       <c r="F25" s="5">
         <v>1654</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>1678</v>
       </c>
-      <c r="H25" s="9">
-        <f>AVERAGE(C25:G25)</f>
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
         <v>1658.6</v>
       </c>
       <c r="I25" s="5">
@@ -12822,11 +12816,11 @@
         <v>4.79518055915832</v>
       </c>
       <c r="L2">
-        <f>AVERAGE(C2,F2,I2)</f>
+        <f t="shared" ref="L2:L25" si="0">AVERAGE(C2,F2,I2)</f>
         <v>68</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(E2,H2,K2)</f>
+        <f t="shared" ref="M2:M25" si="1">AVERAGE(E2,H2,K2)</f>
         <v>6.76956089337666</v>
       </c>
       <c r="N2">
@@ -12871,11 +12865,11 @@
         <v>1.43815541267395</v>
       </c>
       <c r="L3">
-        <f>AVERAGE(C3,F3,I3)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="M3">
-        <f>AVERAGE(E3,H3,K3)</f>
+        <f t="shared" si="1"/>
         <v>2.26099530855814</v>
       </c>
       <c r="N3">
@@ -12920,11 +12914,11 @@
         <v>2.4015793800354</v>
       </c>
       <c r="L4">
-        <f>AVERAGE(C4,F4,I4)</f>
+        <f t="shared" si="0"/>
         <v>46.3333333333333</v>
       </c>
       <c r="M4">
-        <f>AVERAGE(E4,H4,K4)</f>
+        <f t="shared" si="1"/>
         <v>7.61535938580828</v>
       </c>
       <c r="N4">
@@ -12941,13 +12935,13 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1038</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>3104</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>782.24095582962</v>
       </c>
       <c r="F5" s="5">
@@ -12968,12 +12962,12 @@
       <c r="K5" s="5">
         <v>1096.14458084106</v>
       </c>
-      <c r="L5" s="8">
-        <f>AVERAGE(C5,F5,I5)</f>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
         <v>1049.33333333333</v>
       </c>
       <c r="M5">
-        <f>AVERAGE(E5,H5,K5)</f>
+        <f t="shared" si="1"/>
         <v>728.826390663781</v>
       </c>
       <c r="N5">
@@ -13018,11 +13012,11 @@
         <v>243.245709657669</v>
       </c>
       <c r="L6">
-        <f>AVERAGE(C6,F6,I6)</f>
+        <f t="shared" si="0"/>
         <v>850</v>
       </c>
       <c r="M6">
-        <f>AVERAGE(E6,H6,K6)</f>
+        <f t="shared" si="1"/>
         <v>211.411736488342</v>
       </c>
       <c r="N6">
@@ -13067,11 +13061,11 @@
         <v>211.046790599823</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(C7,F7,I7)</f>
+        <f t="shared" si="0"/>
         <v>711.333333333333</v>
       </c>
       <c r="M7">
-        <f>AVERAGE(E7,H7,K7)</f>
+        <f t="shared" si="1"/>
         <v>154.288601318995</v>
       </c>
       <c r="N7">
@@ -13088,22 +13082,22 @@
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1073</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>5314</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1926.00804901123</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>1108</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>3079</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>1112.03406786918</v>
       </c>
       <c r="I8" s="5">
@@ -13116,11 +13110,11 @@
         <v>857.787314653396</v>
       </c>
       <c r="L8" s="4">
-        <f>AVERAGE(C8,F8,I8)</f>
+        <f t="shared" si="0"/>
         <v>1097</v>
       </c>
       <c r="M8" s="3">
-        <f>AVERAGE(E8,H8,K8)</f>
+        <f t="shared" si="1"/>
         <v>1298.60981051127</v>
       </c>
       <c r="N8">
@@ -13137,13 +13131,13 @@
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>852</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>1019</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>282.314406394958</v>
       </c>
       <c r="F9" s="5">
@@ -13165,11 +13159,11 @@
         <v>377.381114959716</v>
       </c>
       <c r="L9" s="4">
-        <f>AVERAGE(C9,F9,I9)</f>
+        <f t="shared" si="0"/>
         <v>852</v>
       </c>
       <c r="M9">
-        <f>AVERAGE(E9,H9,K9)</f>
+        <f t="shared" si="1"/>
         <v>391.925202767054</v>
       </c>
       <c r="N9">
@@ -13214,11 +13208,11 @@
         <v>107.703978538513</v>
       </c>
       <c r="L10">
-        <f>AVERAGE(C10,F10,I10)</f>
+        <f t="shared" si="0"/>
         <v>644</v>
       </c>
       <c r="M10" s="3">
-        <f>AVERAGE(E10,H10,K10)</f>
+        <f t="shared" si="1"/>
         <v>122.88636914889</v>
       </c>
       <c r="N10">
@@ -13263,11 +13257,11 @@
         <v>3600.13045859336</v>
       </c>
       <c r="L11">
-        <f>AVERAGE(C11,F11,I11)</f>
+        <f t="shared" si="0"/>
         <v>1285</v>
       </c>
       <c r="M11">
-        <f>AVERAGE(E11,H11,K11)</f>
+        <f t="shared" si="1"/>
         <v>3410.36804882685</v>
       </c>
       <c r="N11">
@@ -13312,11 +13306,11 @@
         <v>1377.69788050651</v>
       </c>
       <c r="L12">
-        <f>AVERAGE(C12,F12,I12)</f>
+        <f t="shared" si="0"/>
         <v>989.333333333333</v>
       </c>
       <c r="M12" s="3">
-        <f>AVERAGE(E12,H12,K12)</f>
+        <f t="shared" si="1"/>
         <v>1197.65883127848</v>
       </c>
       <c r="N12">
@@ -13333,13 +13327,13 @@
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>852</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>2929</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>875.314353704452</v>
       </c>
       <c r="F13" s="5">
@@ -13351,21 +13345,21 @@
       <c r="H13" s="5">
         <v>545.050611019134</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>816</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>1894</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>574.003023386001</v>
       </c>
       <c r="L13" s="4">
-        <f>AVERAGE(C13,F13,I13)</f>
+        <f t="shared" si="0"/>
         <v>845</v>
       </c>
       <c r="M13" s="4">
-        <f>AVERAGE(E13,H13,K13)</f>
+        <f t="shared" si="1"/>
         <v>664.789329369862</v>
       </c>
       <c r="N13">
@@ -13410,11 +13404,11 @@
         <v>3604.33186936378</v>
       </c>
       <c r="L14">
-        <f>AVERAGE(C14,F14,I14)</f>
+        <f t="shared" si="0"/>
         <v>639</v>
       </c>
       <c r="M14">
-        <f>AVERAGE(E14,H14,K14)</f>
+        <f t="shared" si="1"/>
         <v>3604.29913640022</v>
       </c>
       <c r="N14">
@@ -13459,11 +13453,11 @@
         <v>1199.09756207466</v>
       </c>
       <c r="L15" s="3">
-        <f>AVERAGE(C15,F15,I15)</f>
+        <f t="shared" si="0"/>
         <v>472.333333333333</v>
       </c>
       <c r="M15" s="3">
-        <f>AVERAGE(E15,H15,K15)</f>
+        <f t="shared" si="1"/>
         <v>2238.99648078282</v>
       </c>
       <c r="N15">
@@ -13498,21 +13492,21 @@
       <c r="H16" s="5">
         <v>983.254468679428</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>409</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <v>2624</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>1620.20559048652</v>
       </c>
-      <c r="L16" s="9">
-        <f>AVERAGE(C16,F16,I16)</f>
+      <c r="L16" s="6">
+        <f t="shared" si="0"/>
         <v>399.666666666667</v>
       </c>
       <c r="M16">
-        <f>AVERAGE(E16,H16,K16)</f>
+        <f t="shared" si="1"/>
         <v>1529.34336256981</v>
       </c>
       <c r="N16">
@@ -13557,11 +13551,11 @@
         <v>3605.54498338699</v>
       </c>
       <c r="L17" s="4">
-        <f>AVERAGE(C17,F17,I17)</f>
+        <f t="shared" si="0"/>
         <v>1670</v>
       </c>
       <c r="M17">
-        <f>AVERAGE(E17,H17,K17)</f>
+        <f t="shared" si="1"/>
         <v>3605.59417144457</v>
       </c>
       <c r="N17">
@@ -13606,11 +13600,11 @@
         <v>3605.41574931144</v>
       </c>
       <c r="L18" s="3">
-        <f>AVERAGE(C18,F18,I18)</f>
+        <f t="shared" si="0"/>
         <v>1354.66666666667</v>
       </c>
       <c r="M18">
-        <f>AVERAGE(E18,H18,K18)</f>
+        <f t="shared" si="1"/>
         <v>3515.75515556335</v>
       </c>
       <c r="N18">
@@ -13655,11 +13649,11 @@
         <v>1746.91875052452</v>
       </c>
       <c r="L19">
-        <f>AVERAGE(C19,F19,I19)</f>
+        <f t="shared" si="0"/>
         <v>1323.33333333333</v>
       </c>
       <c r="M19" s="3">
-        <f>AVERAGE(E19,H19,K19)</f>
+        <f t="shared" si="1"/>
         <v>1621.86157743136</v>
       </c>
       <c r="N19">
@@ -13685,13 +13679,13 @@
       <c r="E20" s="5">
         <v>3603.66199636459</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>4168</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>799</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>3621.57737159729</v>
       </c>
       <c r="I20" s="5">
@@ -13704,11 +13698,11 @@
         <v>3609.05858969688</v>
       </c>
       <c r="L20" s="4">
-        <f>AVERAGE(C20,F20,I20)</f>
+        <f t="shared" si="0"/>
         <v>4201</v>
       </c>
       <c r="M20">
-        <f>AVERAGE(E20,H20,K20)</f>
+        <f t="shared" si="1"/>
         <v>3611.43265255292</v>
       </c>
       <c r="N20">
@@ -13753,11 +13747,11 @@
         <v>3601.98855495452</v>
       </c>
       <c r="L21">
-        <f>AVERAGE(C21,F21,I21)</f>
+        <f t="shared" si="0"/>
         <v>3434.66666666667</v>
       </c>
       <c r="M21">
-        <f>AVERAGE(E21,H21,K21)</f>
+        <f t="shared" si="1"/>
         <v>3605.22241560617</v>
       </c>
       <c r="N21">
@@ -13802,11 +13796,11 @@
         <v>2819.88358616828</v>
       </c>
       <c r="L22">
-        <f>AVERAGE(C22,F22,I22)</f>
+        <f t="shared" si="0"/>
         <v>2987.33333333333</v>
       </c>
       <c r="M22" s="3">
-        <f>AVERAGE(E22,H22,K22)</f>
+        <f t="shared" si="1"/>
         <v>3343.17972151438</v>
       </c>
       <c r="N22">
@@ -13851,11 +13845,11 @@
         <v>3606.57071018219</v>
       </c>
       <c r="L23">
-        <f>AVERAGE(C23,F23,I23)</f>
+        <f t="shared" si="0"/>
         <v>2867</v>
       </c>
       <c r="M23">
-        <f>AVERAGE(E23,H23,K23)</f>
+        <f t="shared" si="1"/>
         <v>3618.83440621694</v>
       </c>
       <c r="N23">
@@ -13900,11 +13894,11 @@
         <v>3616.18137192726</v>
       </c>
       <c r="L24">
-        <f>AVERAGE(C24,F24,I24)</f>
+        <f t="shared" si="0"/>
         <v>2224</v>
       </c>
       <c r="M24">
-        <f>AVERAGE(E24,H24,K24)</f>
+        <f t="shared" si="1"/>
         <v>3613.42073822021</v>
       </c>
       <c r="N24">
@@ -13949,11 +13943,11 @@
         <v>3613.50403308868</v>
       </c>
       <c r="L25">
-        <f>AVERAGE(C25,F25,I25)</f>
+        <f t="shared" si="0"/>
         <v>1593.66666666667</v>
       </c>
       <c r="M25">
-        <f>AVERAGE(E25,H25,K25)</f>
+        <f t="shared" si="1"/>
         <v>3610.40977462132</v>
       </c>
       <c r="N25">
@@ -14001,9 +13995,9 @@
     <col min="9" max="10" width="10" style="5"/>
     <col min="11" max="11" width="12.8888888888889" style="5"/>
     <col min="12" max="13" width="12.8888888888889"/>
-    <col min="14" max="14" width="17" style="6" customWidth="1"/>
-    <col min="15" max="16" width="10" style="6"/>
-    <col min="17" max="17" width="12.8888888888889" style="6"/>
+    <col min="14" max="14" width="17" style="5" customWidth="1"/>
+    <col min="15" max="16" width="10" style="5"/>
+    <col min="17" max="17" width="12.8888888888889" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -14041,23 +14035,23 @@
         <v>59.3927829265594</v>
       </c>
       <c r="L1">
-        <f>AVERAGE(C1,F1,I1)</f>
+        <f t="shared" ref="L1:L24" si="0">AVERAGE(C1,F1,I1)</f>
         <v>68</v>
       </c>
       <c r="M1">
-        <f>AVERAGE(E1,H1,K1)</f>
+        <f t="shared" ref="M1:M24" si="1">AVERAGE(E1,H1,K1)</f>
         <v>47.2127981185913</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="5">
         <v>1728</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="5">
         <v>694</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="5">
         <v>3600.37563204765</v>
       </c>
     </row>
@@ -14096,23 +14090,23 @@
         <v>13.0808475017547</v>
       </c>
       <c r="L2">
-        <f>AVERAGE(C2,F2,I2)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="M2">
-        <f>AVERAGE(E2,H2,K2)</f>
+        <f t="shared" si="1"/>
         <v>15.1622584660848</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>1753</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>694</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <v>3612.93164515495</v>
       </c>
     </row>
@@ -14151,11 +14145,11 @@
         <v>40.1931085586547</v>
       </c>
       <c r="L3">
-        <f>AVERAGE(C3,F3,I3)</f>
+        <f t="shared" si="0"/>
         <v>45.6666666666667</v>
       </c>
       <c r="M3">
-        <f>AVERAGE(E3,H3,K3)</f>
+        <f t="shared" si="1"/>
         <v>31.554160674413</v>
       </c>
     </row>
@@ -14194,11 +14188,11 @@
         <v>601.921874284744</v>
       </c>
       <c r="L4">
-        <f>AVERAGE(C4,F4,I4)</f>
+        <f t="shared" si="0"/>
         <v>1049.66666666667</v>
       </c>
       <c r="M4">
-        <f>AVERAGE(E4,H4,K4)</f>
+        <f t="shared" si="1"/>
         <v>986.94053808848</v>
       </c>
     </row>
@@ -14237,11 +14231,11 @@
         <v>325.328828811645</v>
       </c>
       <c r="L5">
-        <f>AVERAGE(C5,F5,I5)</f>
+        <f t="shared" si="0"/>
         <v>850</v>
       </c>
       <c r="M5">
-        <f>AVERAGE(E5,H5,K5)</f>
+        <f t="shared" si="1"/>
         <v>386.891314744949</v>
       </c>
     </row>
@@ -14280,11 +14274,11 @@
         <v>289.456773519516</v>
       </c>
       <c r="L6">
-        <f>AVERAGE(C6,F6,I6)</f>
+        <f t="shared" si="0"/>
         <v>723.333333333333</v>
       </c>
       <c r="M6">
-        <f>AVERAGE(E6,H6,K6)</f>
+        <f t="shared" si="1"/>
         <v>206.884862025579</v>
       </c>
     </row>
@@ -14323,11 +14317,11 @@
         <v>654.717078924179</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(C7,F7,I7)</f>
+        <f t="shared" si="0"/>
         <v>1096</v>
       </c>
       <c r="M7">
-        <f>AVERAGE(E7,H7,K7)</f>
+        <f t="shared" si="1"/>
         <v>1820.27517859141</v>
       </c>
     </row>
@@ -14366,11 +14360,11 @@
         <v>534.11873960495</v>
       </c>
       <c r="L8">
-        <f>AVERAGE(C8,F8,I8)</f>
+        <f t="shared" si="0"/>
         <v>840.666666666667</v>
       </c>
       <c r="M8">
-        <f>AVERAGE(E8,H8,K8)</f>
+        <f t="shared" si="1"/>
         <v>458.574985742569</v>
       </c>
     </row>
@@ -14399,21 +14393,21 @@
       <c r="H9" s="5">
         <v>291.165935277938</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>652</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>2094</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>496.787793397903</v>
       </c>
       <c r="L9" s="4">
-        <f>AVERAGE(C9,F9,I9)</f>
+        <f t="shared" si="0"/>
         <v>668</v>
       </c>
       <c r="M9">
-        <f>AVERAGE(E9,H9,K9)</f>
+        <f t="shared" si="1"/>
         <v>327.363758405049</v>
       </c>
     </row>
@@ -14452,11 +14446,11 @@
         <v>3601.99042034149</v>
       </c>
       <c r="L10">
-        <f>AVERAGE(C10,F10,I10)</f>
+        <f t="shared" si="0"/>
         <v>1291.33333333333</v>
       </c>
       <c r="M10">
-        <f>AVERAGE(E10,H10,K10)</f>
+        <f t="shared" si="1"/>
         <v>3601.20763524373</v>
       </c>
     </row>
@@ -14495,11 +14489,11 @@
         <v>381.702544689178</v>
       </c>
       <c r="L11">
-        <f>AVERAGE(C11,F11,I11)</f>
+        <f t="shared" si="0"/>
         <v>996.333333333333</v>
       </c>
       <c r="M11">
-        <f>AVERAGE(E11,H11,K11)</f>
+        <f t="shared" si="1"/>
         <v>1554.7706507047</v>
       </c>
     </row>
@@ -14538,11 +14532,11 @@
         <v>364.9916806221</v>
       </c>
       <c r="L12">
-        <f>AVERAGE(C12,F12,I12)</f>
+        <f t="shared" si="0"/>
         <v>816</v>
       </c>
       <c r="M12">
-        <f>AVERAGE(E12,H12,K12)</f>
+        <f t="shared" si="1"/>
         <v>337.507987022399</v>
       </c>
     </row>
@@ -14581,23 +14575,23 @@
         <v>3605.1586124897</v>
       </c>
       <c r="L13">
-        <f>AVERAGE(C13,F13,I13)</f>
+        <f t="shared" si="0"/>
         <v>639.666666666667</v>
       </c>
       <c r="M13">
-        <f>AVERAGE(E13,H13,K13)</f>
+        <f t="shared" si="1"/>
         <v>3603.42630958557</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>4302</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <v>684</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <v>3607.50681233406</v>
       </c>
     </row>
@@ -14636,23 +14630,23 @@
         <v>2224.14230179786</v>
       </c>
       <c r="L14">
-        <f>AVERAGE(C14,F14,I14)</f>
+        <f t="shared" si="0"/>
         <v>482.333333333333</v>
       </c>
       <c r="M14">
-        <f>AVERAGE(E14,H14,K14)</f>
+        <f t="shared" si="1"/>
         <v>2358.19177103042</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>4240</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <v>689</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <v>3625.65130233764</v>
       </c>
     </row>
@@ -14691,23 +14685,23 @@
         <v>1682.70113420486</v>
       </c>
       <c r="L15">
-        <f>AVERAGE(C15,F15,I15)</f>
+        <f t="shared" si="0"/>
         <v>402.333333333333</v>
       </c>
       <c r="M15">
-        <f>AVERAGE(E15,H15,K15)</f>
+        <f t="shared" si="1"/>
         <v>1755.59036294619</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <v>3187</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <v>1279</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <v>3600.13117599487</v>
       </c>
     </row>
@@ -14746,11 +14740,11 @@
         <v>3607.90447950363</v>
       </c>
       <c r="L16">
-        <f>AVERAGE(C16,F16,I16)</f>
+        <f t="shared" si="0"/>
         <v>1666.66666666667</v>
       </c>
       <c r="M16">
-        <f>AVERAGE(E16,H16,K16)</f>
+        <f t="shared" si="1"/>
         <v>3604.60338513056</v>
       </c>
     </row>
@@ -14789,11 +14783,11 @@
         <v>3605.29178714752</v>
       </c>
       <c r="L17">
-        <f>AVERAGE(C17,F17,I17)</f>
+        <f t="shared" si="0"/>
         <v>1360.33333333333</v>
       </c>
       <c r="M17">
-        <f>AVERAGE(E17,H17,K17)</f>
+        <f t="shared" si="1"/>
         <v>3604.52293054262</v>
       </c>
     </row>
@@ -14832,11 +14826,11 @@
         <v>1502.03856492042</v>
       </c>
       <c r="L18">
-        <f>AVERAGE(C18,F18,I18)</f>
+        <f t="shared" si="0"/>
         <v>1340.33333333333</v>
       </c>
       <c r="M18">
-        <f>AVERAGE(E18,H18,K18)</f>
+        <f t="shared" si="1"/>
         <v>2002.75477949778</v>
       </c>
     </row>
@@ -14847,13 +14841,13 @@
       <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>4240</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>689</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>3625.65130233764</v>
       </c>
       <c r="F19" s="5">
@@ -14875,23 +14869,23 @@
         <v>3616.27203440666</v>
       </c>
       <c r="L19">
-        <f>AVERAGE(C19,F19,I19)</f>
+        <f t="shared" si="0"/>
         <v>4210.33333333333</v>
       </c>
       <c r="M19">
-        <f>AVERAGE(E19,H19,K19)</f>
+        <f t="shared" si="1"/>
         <v>3618.23082749048</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>2978</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <v>1274</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <v>3605.37566518783</v>
       </c>
     </row>
@@ -14930,23 +14924,23 @@
         <v>3607.63532376289</v>
       </c>
       <c r="L20">
-        <f>AVERAGE(C20,F20,I20)</f>
+        <f t="shared" si="0"/>
         <v>3488.33333333333</v>
       </c>
       <c r="M20">
-        <f>AVERAGE(E20,H20,K20)</f>
+        <f t="shared" si="1"/>
         <v>3605.83378092448</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>698</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <v>1419</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="5">
         <v>337.34300661087</v>
       </c>
     </row>
@@ -14957,13 +14951,13 @@
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>3076</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>1279</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>3603.3834722042</v>
       </c>
       <c r="F21" s="5">
@@ -14975,33 +14969,33 @@
       <c r="H21" s="5">
         <v>3603.50801801681</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>3101</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>1279</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>3604.95117306709</v>
       </c>
       <c r="L21">
-        <f>AVERAGE(C21,F21,I21)</f>
+        <f t="shared" si="0"/>
         <v>3064.66666666667</v>
       </c>
       <c r="M21">
-        <f>AVERAGE(E21,H21,K21)</f>
+        <f t="shared" si="1"/>
         <v>3603.94755442937</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>675</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>2299</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>544.749896764755</v>
       </c>
     </row>
@@ -15040,11 +15034,11 @@
         <v>3644.99029588699</v>
       </c>
       <c r="L22">
-        <f>AVERAGE(C22,F22,I22)</f>
+        <f t="shared" si="0"/>
         <v>2923.33333333333</v>
       </c>
       <c r="M22">
-        <f>AVERAGE(E22,H22,K22)</f>
+        <f t="shared" si="1"/>
         <v>3626.00385085741</v>
       </c>
     </row>
@@ -15083,11 +15077,11 @@
         <v>3604.70348596572</v>
       </c>
       <c r="L23">
-        <f>AVERAGE(C23,F23,I23)</f>
+        <f t="shared" si="0"/>
         <v>2224</v>
       </c>
       <c r="M23">
-        <f>AVERAGE(E23,H23,K23)</f>
+        <f t="shared" si="1"/>
         <v>3613.07891845703</v>
       </c>
     </row>
@@ -15098,13 +15092,13 @@
       <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>1634</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>694</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>3604.87662553787</v>
       </c>
       <c r="F24" s="5">
@@ -15126,11 +15120,11 @@
         <v>3614.75652909278</v>
       </c>
       <c r="L24">
-        <f>AVERAGE(C24,F24,I24)</f>
+        <f t="shared" si="0"/>
         <v>1633.33333333333</v>
       </c>
       <c r="M24">
-        <f>AVERAGE(E24,H24,K24)</f>
+        <f t="shared" si="1"/>
         <v>3611.07387828826</v>
       </c>
     </row>
@@ -15174,13 +15168,13 @@
       <c r="M25" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -15204,8 +15198,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -15619,7 +15613,7 @@
       <c r="C11">
         <v>1327</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>1384</v>
       </c>
       <c r="E11">
@@ -15659,7 +15653,7 @@
       <c r="C12">
         <v>1023</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>1082.4</v>
       </c>
       <c r="E12">
@@ -15819,7 +15813,7 @@
       <c r="C16">
         <v>428</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="6">
         <v>429</v>
       </c>
       <c r="E16">
@@ -15859,7 +15853,7 @@
       <c r="C17">
         <v>1697</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="6">
         <v>1718.2</v>
       </c>
       <c r="E17">
@@ -15979,7 +15973,7 @@
       <c r="C20">
         <v>4167</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="6">
         <v>4228.8</v>
       </c>
       <c r="E20">
@@ -16019,7 +16013,7 @@
       <c r="C21">
         <v>3496</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="6">
         <v>3511</v>
       </c>
       <c r="E21">
@@ -16059,7 +16053,7 @@
       <c r="C22">
         <v>3002</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="6">
         <v>3049.8</v>
       </c>
       <c r="E22">
@@ -16179,7 +16173,7 @@
       <c r="C25">
         <v>1640</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="6">
         <v>1658.6</v>
       </c>
       <c r="E25">
@@ -16224,7 +16218,7 @@
   <sheetPr/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
